--- a/data_year/zb/文化/电子出版物出版情况.xlsx
+++ b/data_year/zb/文化/电子出版物出版情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -534,10 +534,10 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>14008.97</v>
+        <v>25911.86</v>
       </c>
       <c r="O2" t="n">
-        <v>6152</v>
+        <v>11175</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -545,34 +545,62 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1407.17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>861</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15919.66</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7546</v>
+      </c>
+      <c r="F3" t="n">
+        <v>795.88</v>
+      </c>
+      <c r="G3" t="n">
+        <v>538</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4433.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4314</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8087.81</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6924</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2858.13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2072</v>
+      </c>
       <c r="N3" t="n">
-        <v>16035.72</v>
+        <v>21322.22</v>
       </c>
       <c r="O3" t="n">
-        <v>7207</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>11154</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3995.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2747</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -588,10 +616,10 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>13584.04</v>
+        <v>26344.86</v>
       </c>
       <c r="O4" t="n">
-        <v>8652</v>
+        <v>11822</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -599,7 +627,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -615,10 +643,10 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>15770.64</v>
+        <v>35048.82</v>
       </c>
       <c r="O5" t="n">
-        <v>9668</v>
+        <v>11823</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -626,7 +654,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -642,10 +670,10 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>22914.04</v>
+        <v>21438.3803</v>
       </c>
       <c r="O6" t="n">
-        <v>10708</v>
+        <v>10091</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -653,7 +681,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -669,10 +697,10 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>25911.86</v>
+        <v>29064.66</v>
       </c>
       <c r="O7" t="n">
-        <v>11175</v>
+        <v>9836</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -680,62 +708,34 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1407.17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>861</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15919.66</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7546</v>
-      </c>
-      <c r="F8" t="n">
-        <v>795.88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>538</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4433.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4314</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8087.81</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6924</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2858.13</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2072</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>21322.22</v>
+        <v>28132.9257</v>
       </c>
       <c r="O8" t="n">
-        <v>11154</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3995.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2747</v>
-      </c>
+        <v>9240</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -751,10 +751,10 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>26344.86</v>
+        <v>25884.2093</v>
       </c>
       <c r="O9" t="n">
-        <v>11822</v>
+        <v>8403</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -762,7 +762,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -778,10 +778,10 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>35048.82</v>
+        <v>29261.8754</v>
       </c>
       <c r="O10" t="n">
-        <v>11823</v>
+        <v>9070</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -789,7 +789,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -805,10 +805,10 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>21438.3803</v>
+        <v>25270.7384999999</v>
       </c>
       <c r="O11" t="n">
-        <v>10091</v>
+        <v>7825</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -816,7 +816,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -832,121 +832,13 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>29064.66</v>
+        <v>31773.1088999997</v>
       </c>
       <c r="O12" t="n">
-        <v>9836</v>
+        <v>8199</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>28132.9257</v>
-      </c>
-      <c r="O13" t="n">
-        <v>9240</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>25884.2093</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8403</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>29261.8754</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9070</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>25270.7384999999</v>
-      </c>
-      <c r="O16" t="n">
-        <v>7825</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
